--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="H2">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="I2">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="J2">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +561,22 @@
         <v>26.648191</v>
       </c>
       <c r="O2">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="P2">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="Q2">
-        <v>62.88696823086632</v>
+        <v>84.79579030515677</v>
       </c>
       <c r="R2">
-        <v>565.982714077797</v>
+        <v>763.1621127464109</v>
       </c>
       <c r="S2">
-        <v>0.4645698741166204</v>
+        <v>0.5488891612697467</v>
       </c>
       <c r="T2">
-        <v>0.4645698741166204</v>
+        <v>0.5488891612697467</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="H3">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="I3">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="J3">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.733518</v>
+        <v>0.616144</v>
       </c>
       <c r="N3">
-        <v>2.200554</v>
+        <v>1.848432</v>
       </c>
       <c r="O3">
-        <v>0.07621469316727886</v>
+        <v>0.06483569448352988</v>
       </c>
       <c r="P3">
-        <v>0.07621469316727884</v>
+        <v>0.0648356944835299</v>
       </c>
       <c r="Q3">
-        <v>5.193079315902</v>
+        <v>5.881797089541334</v>
       </c>
       <c r="R3">
-        <v>46.73771384311799</v>
+        <v>52.936173805872</v>
       </c>
       <c r="S3">
-        <v>0.03836324554889394</v>
+        <v>0.03807328948310828</v>
       </c>
       <c r="T3">
-        <v>0.03836324554889393</v>
+        <v>0.03807328948310829</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="H4">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="I4">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="J4">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.008116333333333335</v>
+        <v>0.004286</v>
       </c>
       <c r="N4">
-        <v>0.024349</v>
+        <v>0.012858</v>
       </c>
       <c r="O4">
-        <v>0.0008433110770878938</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="P4">
-        <v>0.0008433110770878937</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="Q4">
-        <v>0.05746111582033334</v>
+        <v>0.04091475746866666</v>
       </c>
       <c r="R4">
-        <v>0.517150042383</v>
+        <v>0.368232817218</v>
       </c>
       <c r="S4">
-        <v>0.0004244870454758296</v>
+        <v>0.0002648441252768867</v>
       </c>
       <c r="T4">
-        <v>0.0004244870454758295</v>
+        <v>0.0002648441252768867</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>12.176051</v>
       </c>
       <c r="I5">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="J5">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,10 +747,10 @@
         <v>26.648191</v>
       </c>
       <c r="O5">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="P5">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="Q5">
         <v>36.05219251930455</v>
@@ -759,10 +759,10 @@
         <v>324.469732673741</v>
       </c>
       <c r="S5">
-        <v>0.2663312131511026</v>
+        <v>0.2333683976839247</v>
       </c>
       <c r="T5">
-        <v>0.2663312131511026</v>
+        <v>0.2333683976839247</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>12.176051</v>
       </c>
       <c r="I6">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="J6">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.733518</v>
+        <v>0.616144</v>
       </c>
       <c r="N6">
-        <v>2.200554</v>
+        <v>1.848432</v>
       </c>
       <c r="O6">
-        <v>0.07621469316727886</v>
+        <v>0.06483569448352988</v>
       </c>
       <c r="P6">
-        <v>0.07621469316727884</v>
+        <v>0.0648356944835299</v>
       </c>
       <c r="Q6">
-        <v>2.977117525806</v>
+        <v>2.500733589114667</v>
       </c>
       <c r="R6">
-        <v>26.794057732254</v>
+        <v>22.506602302032</v>
       </c>
       <c r="S6">
-        <v>0.021993095757401</v>
+        <v>0.0161874257831495</v>
       </c>
       <c r="T6">
-        <v>0.021993095757401</v>
+        <v>0.0161874257831495</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>12.176051</v>
       </c>
       <c r="I7">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="J7">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.008116333333333335</v>
+        <v>0.004286</v>
       </c>
       <c r="N7">
-        <v>0.024349</v>
+        <v>0.012858</v>
       </c>
       <c r="O7">
-        <v>0.0008433110770878938</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="P7">
-        <v>0.0008433110770878937</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="Q7">
-        <v>0.03294162953322223</v>
+        <v>0.01739551819533334</v>
       </c>
       <c r="R7">
-        <v>0.2964746657990001</v>
+        <v>0.156559663758</v>
       </c>
       <c r="S7">
-        <v>0.0002433523051908552</v>
+        <v>0.0001126024223340303</v>
       </c>
       <c r="T7">
-        <v>0.0002433523051908552</v>
+        <v>0.0001126024223340303</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.463241333333334</v>
+        <v>2.210442</v>
       </c>
       <c r="H8">
-        <v>7.389724000000001</v>
+        <v>6.631326</v>
       </c>
       <c r="I8">
-        <v>0.1751335775198961</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="J8">
-        <v>0.175133577519896</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,22 +933,22 @@
         <v>26.648191</v>
       </c>
       <c r="O8">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="P8">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="Q8">
-        <v>21.88030850992045</v>
+        <v>19.634760203474</v>
       </c>
       <c r="R8">
-        <v>196.922776589284</v>
+        <v>176.712841831266</v>
       </c>
       <c r="S8">
-        <v>0.1616381335600368</v>
+        <v>0.1270971945780902</v>
       </c>
       <c r="T8">
-        <v>0.1616381335600367</v>
+        <v>0.1270971945780902</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.463241333333334</v>
+        <v>2.210442</v>
       </c>
       <c r="H9">
-        <v>7.389724000000001</v>
+        <v>6.631326</v>
       </c>
       <c r="I9">
-        <v>0.1751335775198961</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="J9">
-        <v>0.175133577519896</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.733518</v>
+        <v>0.616144</v>
       </c>
       <c r="N9">
-        <v>2.200554</v>
+        <v>1.848432</v>
       </c>
       <c r="O9">
-        <v>0.07621469316727886</v>
+        <v>0.06483569448352988</v>
       </c>
       <c r="P9">
-        <v>0.07621469316727884</v>
+        <v>0.0648356944835299</v>
       </c>
       <c r="Q9">
-        <v>1.806831856344</v>
+        <v>1.361950575648</v>
       </c>
       <c r="R9">
-        <v>16.261486707096</v>
+        <v>12.257555180832</v>
       </c>
       <c r="S9">
-        <v>0.01334775187396672</v>
+        <v>0.008816002616026298</v>
       </c>
       <c r="T9">
-        <v>0.01334775187396672</v>
+        <v>0.008816002616026299</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.463241333333334</v>
+        <v>2.210442</v>
       </c>
       <c r="H10">
-        <v>7.389724000000001</v>
+        <v>6.631326</v>
       </c>
       <c r="I10">
-        <v>0.1751335775198961</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="J10">
-        <v>0.175133577519896</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.008116333333333335</v>
+        <v>0.004286</v>
       </c>
       <c r="N10">
-        <v>0.024349</v>
+        <v>0.012858</v>
       </c>
       <c r="O10">
-        <v>0.0008433110770878938</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="P10">
-        <v>0.0008433110770878937</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="Q10">
-        <v>0.01999248774177778</v>
+        <v>0.009473954412</v>
       </c>
       <c r="R10">
-        <v>0.179932389676</v>
+        <v>0.08526558970800001</v>
       </c>
       <c r="S10">
-        <v>0.0001476920858925597</v>
+        <v>6.132557845615426E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001476920858925596</v>
+        <v>6.132557845615426E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.463315</v>
+        <v>0.4410293333333333</v>
       </c>
       <c r="H11">
-        <v>1.389945</v>
+        <v>1.323088</v>
       </c>
       <c r="I11">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="J11">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>26.648191</v>
       </c>
       <c r="O11">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="P11">
-        <v>0.9229419957556332</v>
+        <v>0.9347132976570145</v>
       </c>
       <c r="Q11">
-        <v>4.115502204388333</v>
+        <v>3.917544637089778</v>
       </c>
       <c r="R11">
-        <v>37.039519839495</v>
+        <v>35.257901733808</v>
       </c>
       <c r="S11">
-        <v>0.03040277492787352</v>
+        <v>0.02535854412525281</v>
       </c>
       <c r="T11">
-        <v>0.03040277492787352</v>
+        <v>0.02535854412525281</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.463315</v>
+        <v>0.4410293333333333</v>
       </c>
       <c r="H12">
-        <v>1.389945</v>
+        <v>1.323088</v>
       </c>
       <c r="I12">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="J12">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.733518</v>
+        <v>0.616144</v>
       </c>
       <c r="N12">
-        <v>2.200554</v>
+        <v>1.848432</v>
       </c>
       <c r="O12">
-        <v>0.07621469316727886</v>
+        <v>0.06483569448352988</v>
       </c>
       <c r="P12">
-        <v>0.07621469316727884</v>
+        <v>0.0648356944835299</v>
       </c>
       <c r="Q12">
-        <v>0.33984989217</v>
+        <v>0.2717375775573334</v>
       </c>
       <c r="R12">
-        <v>3.05864902953</v>
+        <v>2.445638198016</v>
       </c>
       <c r="S12">
-        <v>0.002510599987017198</v>
+        <v>0.001758976601245814</v>
       </c>
       <c r="T12">
-        <v>0.002510599987017197</v>
+        <v>0.001758976601245815</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.463315</v>
+        <v>0.4410293333333333</v>
       </c>
       <c r="H13">
-        <v>1.389945</v>
+        <v>1.323088</v>
       </c>
       <c r="I13">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="J13">
-        <v>0.03294115455541937</v>
+        <v>0.02712975645988715</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.008116333333333335</v>
+        <v>0.004286</v>
       </c>
       <c r="N13">
-        <v>0.024349</v>
+        <v>0.012858</v>
       </c>
       <c r="O13">
-        <v>0.0008433110770878938</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="P13">
-        <v>0.0008433110770878937</v>
+        <v>0.0004510078594555965</v>
       </c>
       <c r="Q13">
-        <v>0.003760418978333334</v>
+        <v>0.001890251722666667</v>
       </c>
       <c r="R13">
-        <v>0.03384377080500001</v>
+        <v>0.017012265504</v>
       </c>
       <c r="S13">
-        <v>2.777964052864949E-05</v>
+        <v>1.223573338852534E-05</v>
       </c>
       <c r="T13">
-        <v>2.777964052864948E-05</v>
+        <v>1.223573338852535E-05</v>
       </c>
     </row>
   </sheetData>
